--- a/biology/Médecine/Vision_du_tunnel/Vision_du_tunnel.xlsx
+++ b/biology/Médecine/Vision_du_tunnel/Vision_du_tunnel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vision du tunnel (ou vision tunnelisée) est la perte de vision périphérique avec rétention de la vision centrale, résultant en une vision circonscrite et circulaire du champ de vision[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vision du tunnel (ou vision tunnelisée) est la perte de vision périphérique avec rétention de la vision centrale, résultant en une vision circonscrite et circulaire du champ de vision.
 L'expression « tunnel vision » est également utilisée pour désigner de façon métaphorique l'étroitesse ou la fermeture d'esprit d'un individu, ou son comportement anomique.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Causes biologiques/médicales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La vision du tunnel peut être causée par :
 perte de sang (hypovolémie) ;
-consommation d'alcool (peut causer une vision du tunnel)[2]. En addition, la vision devient trouble ou double lorsque les muscles optiques perdent leur précision résultant à une incapacité à se focaliser sur un même objet ;
+consommation d'alcool (peut causer une vision du tunnel). En addition, la vision devient trouble ou double lorsque les muscles optiques perdent leur précision résultant à une incapacité à se focaliser sur un même objet ;
 drogues hallucinogènes ;
 glaucome, maladie optique ;
 peur extrême ou détresse, plus souvent dans le contexte de la peur panique ;
@@ -557,7 +571,9 @@
           <t>Port de lunettes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les individus portant des lunettes expérimentent la vision du tunnel à un degré variable à cause du verre correcteur.
 </t>
